--- a/medicine/Médecine vétérinaire/Stéphane_Houdet/Stéphane_Houdet.xlsx
+++ b/medicine/Médecine vétérinaire/Stéphane_Houdet/Stéphane_Houdet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Houdet</t>
+          <t>Stéphane_Houdet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Stéphane Houdet, né le 20 novembre 1970 à Saint-Nazaire, est un joueur professionnel français de tennis en fauteuil roulant.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Houdet</t>
+          <t>Stéphane_Houdet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,25 +526,24 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stéphane Houdet joue au tennis à partir de l'âge de 8 ans et obtient un bon classement en simple avant son accident (2/6)[1].
-Il intègre en 1990 l'École nationale vétérinaire de Nantes[2],[3] dont il sera diplômé de la promotion Arkovet en 1994.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stéphane Houdet joue au tennis à partir de l'âge de 8 ans et obtient un bon classement en simple avant son accident (2/6).
+Il intègre en 1990 l'École nationale vétérinaire de Nantes, dont il sera diplômé de la promotion Arkovet en 1994.
 Le 9 août 1996, à Mondsee près de Salzbourg en Autriche, un accident de moto le prive de l'usage de son genou gauche. Il s'accommode dans un premier temps de son genou raide et se met au golf.
 En 1998, il soutient sa thèse « Étude de la création d'une clinique vétérinaire à activité canine » auprès de la faculté de médecine de Nantes et devient docteur en médecine vétérinaire. Il crée une clinique vétérinaire en Isère et pratique la médecine vétérinaire en libéral jusque fin 2004. Il est aussi, jusqu'en 2007, attaché commercial au sein de la société Enora Technologies, un éditeur de solutions informatiques permettant le suivi médical des sportifs de haut niveau.
-Dans le même temps, il devient le numéro un français (2001-2006) puis européen (2003-2004) de golf en catégorie handisport. C'est dans ce cadre qu'il rencontre, en 2004, Johan Cruyff, dont la fondation soutient les programmes de sport pour les enfants handicapés, et qui lui conseille de se mettre au tennis[4].
-En décembre 2004, il choisit de se faire amputer de la jambe gauche, après avoir vu un golfeur du nom de Matthew Smith jouer en short avec une prothèse[1].
+Dans le même temps, il devient le numéro un français (2001-2006) puis européen (2003-2004) de golf en catégorie handisport. C'est dans ce cadre qu'il rencontre, en 2004, Johan Cruyff, dont la fondation soutient les programmes de sport pour les enfants handicapés, et qui lui conseille de se mettre au tennis.
+En décembre 2004, il choisit de se faire amputer de la jambe gauche, après avoir vu un golfeur du nom de Matthew Smith jouer en short avec une prothèse.
 En 2005, il commence le tennis en fauteuil et se distingue en remportant le premier tournoi qu'il dispute. Il devient professionnel en 2008, année au cours de laquelle il est médaillé d'or aux Jeux paralympiques de Pékin. Il devient n°1 mondial en double en janvier 2009, puis en simple en juin 2012.
 Le 19 janvier 2009, Stéphane Houdet est fait chevalier de la Légion d'honneur par le président de la République Nicolas Sarkozy en tant que champion paralympique.
 En parallèle de sa carrière sportive, il devient, en novembre 2009, employé civil du ministère de la Défense rattaché au Centre national des sports de la défense de Fontainebleau. Le 1er février 2015, il est devenu conseiller sport et handicap du commissaire Hervé Piccirillo.
 En 2014, à l'occasion du tournoi de Roland-Garros, il rejoint l'équipe des consultants d'Eurosport.
-En 2016, l'association Club INSEP Alumni lui attribue le trophée Micheline Ostermeyer pour souligner un parcours qui s'inscrit dans une double réussite sportive et professionnelle en tant que docteur vétérinaire[5].
+En 2016, l'association Club INSEP Alumni lui attribue le trophée Micheline Ostermeyer pour souligner un parcours qui s'inscrit dans une double réussite sportive et professionnelle en tant que docteur vétérinaire.
 En octobre 2020, à l'occasion de l’édition décalée à l’automne du tournoi de Roland-Garros, il rejoint l'équipe des consultants de France Télévisions.
-Le 5 juillet 2021, il est nommé porte-drapeau de l'équipe de France paralympique pour les Jeux de Tokyo 2020 par un vote du public entériné par le CPSF, conjointement avec la juodokate Sandrine Martinet[6].
+Le 5 juillet 2021, il est nommé porte-drapeau de l'équipe de France paralympique pour les Jeux de Tokyo 2020 par un vote du public entériné par le CPSF, conjointement avec la juodokate Sandrine Martinet.
 Le 13 septembre 2021, au cours de la réception des médaillés olympiques et paralympiques des Jeux de Tokyo 2020 au palais de l'Élysée, il est fait officier de la Légion d'honneur, par le président de la République Emmanuel Macron en tant que triple champion paralympique.
-Vie privée
-Stéphane Houdet est l'aîné d’une fratrie de trois (une sœur Manuella et un frère Mickaël). Il a cinq enfants : Julien, Paul, Baptiste, Marine et Aurore.
-En 2019, il épouse en secondes noces Marie Sermadiras de Pouzols de Lile à Paris.
 </t>
         </is>
       </c>
@@ -543,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Houdet</t>
+          <t>Stéphane_Houdet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,19 +569,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Carrière sportive</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il remporte, le 8 juin 2012 face à Shingo Kunieda, le tournoi de Roland-Garros[7], son premier Grand Chelem, devenant ainsi numéro 1 mondial en simple messieurs.
-Au 31 décembre 2012 il est élu par la Fédération internationale de tennis champion du monde de tennis en fauteuil roulant.
-En 2013, il remporte de nouveau le tournoi en simple[8]. La même année, il remporte le double messieurs avec Kunieda.
-Trois mois plus tard, il remporte pour la première fois l'US Open en simple, en disposant une nouvelle fois de Kunieda[9].
-Il perd en 2014 et 2015 contre ce même adversaire en finale de Roland-Garros.
-En 2017, il remporte pour la deuxième fois l'US Open en simple face au britannique Alfie Hewett, estimant qu'il "joue mieux que jamais".
-En janvier 2018, il perd en finale de l'Open d'Australie contre Kunieda, pour la sixième fois de sa carrière, à chaque fois face au même adversaire[10].
-En juin 2018, il remporte le tournoi de Roland Garros en fauteuil, en double avec Nicolas Peifer face à la paire Cattaneo-Olsson, réitérant leur victoire de 2017.
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stéphane Houdet est l'aîné d’une fratrie de trois (une sœur Manuella et un frère Mickaël). Il a cinq enfants : Julien, Paul, Baptiste, Marine et Aurore.
+En 2019, il épouse en secondes noces Marie Sermadiras de Pouzols de Lile à Paris.
 </t>
         </is>
       </c>
@@ -581,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Houdet</t>
+          <t>Stéphane_Houdet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,14 +607,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Style et matériel</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stéphane Houdet est entraîné par Christian Filhol depuis février 2008. Son préparateur physique est Cyril Brechbuhl et son fils Julien Houdet. Il a aussi été entraîné par Benoît Vergnaud (2005-2008), Michel Lunesu (2008-2010), Marine Arres (2010-2012), Xavier Le Gall (2013), Aloïs Beust et Jérôme Potier (2014-2016), Jean de Saintilan (2017-2019).
-Il joue avec la même raquette que Rafael Nadal, l'Aerodrive de chez Babolat. Elle est préparée à 322 grammes et son équilibre est à 31,5 cordée. Son cordage est le RPM Blast 1.20 de chez Babolat et est tendu à 20 kg. En avril 2015, il choisit de jouer avec le modèle connecté de sa raquette, la Babolat Play. Il en profite pour en diminuer le poids à 308 grammes, et ajoute du boyau à son cordage.
-Stéphane Houdet travaille avec une équipe de chercheurs du Laboratoire de Biomécanique des Arts &amp; Métiers et du CERAH (Centre d'Études et de Recherche sur l'appareillage des Handicapés) pour la conception de son fauteuil. Il joue depuis 2015 avec un prototype deux roues de chez Corima qui est entièrement en carbone et qui pèse moins de 10 kilogrammes. Ses roues sont équipées de boyaux gonflés à 12 bars. Après plusieurs années de recherche, une étroite collaboration entre Corima et la société d'orthoprothésistes Chabloz Orthopédie donne naissance à un prototype tout en carbone[11]. L'athlète ne joue ainsi plus assis mais à genoux. En engageant son bassin dans le jeu, les coups et la propulsion sont plus puissants. Il gagne en force, allonge et vitesse, lui qui se décrit comme « le moins rapide du Top 10 »[12].
+          <t>Carrière sportive</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il remporte, le 8 juin 2012 face à Shingo Kunieda, le tournoi de Roland-Garros, son premier Grand Chelem, devenant ainsi numéro 1 mondial en simple messieurs.
+Au 31 décembre 2012 il est élu par la Fédération internationale de tennis champion du monde de tennis en fauteuil roulant.
+En 2013, il remporte de nouveau le tournoi en simple. La même année, il remporte le double messieurs avec Kunieda.
+Trois mois plus tard, il remporte pour la première fois l'US Open en simple, en disposant une nouvelle fois de Kunieda.
+Il perd en 2014 et 2015 contre ce même adversaire en finale de Roland-Garros.
+En 2017, il remporte pour la deuxième fois l'US Open en simple face au britannique Alfie Hewett, estimant qu'il "joue mieux que jamais".
+En janvier 2018, il perd en finale de l'Open d'Australie contre Kunieda, pour la sixième fois de sa carrière, à chaque fois face au même adversaire.
+En juin 2018, il remporte le tournoi de Roland Garros en fauteuil, en double avec Nicolas Peifer face à la paire Cattaneo-Olsson, réitérant leur victoire de 2017.
 </t>
         </is>
       </c>
@@ -614,7 +632,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Houdet</t>
+          <t>Stéphane_Houdet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,15 +647,87 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Style et matériel</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stéphane Houdet est entraîné par Christian Filhol depuis février 2008. Son préparateur physique est Cyril Brechbuhl et son fils Julien Houdet. Il a aussi été entraîné par Benoît Vergnaud (2005-2008), Michel Lunesu (2008-2010), Marine Arres (2010-2012), Xavier Le Gall (2013), Aloïs Beust et Jérôme Potier (2014-2016), Jean de Saintilan (2017-2019).
+Il joue avec la même raquette que Rafael Nadal, l'Aerodrive de chez Babolat. Elle est préparée à 322 grammes et son équilibre est à 31,5 cordée. Son cordage est le RPM Blast 1.20 de chez Babolat et est tendu à 20 kg. En avril 2015, il choisit de jouer avec le modèle connecté de sa raquette, la Babolat Play. Il en profite pour en diminuer le poids à 308 grammes, et ajoute du boyau à son cordage.
+Stéphane Houdet travaille avec une équipe de chercheurs du Laboratoire de Biomécanique des Arts &amp; Métiers et du CERAH (Centre d'Études et de Recherche sur l'appareillage des Handicapés) pour la conception de son fauteuil. Il joue depuis 2015 avec un prototype deux roues de chez Corima qui est entièrement en carbone et qui pèse moins de 10 kilogrammes. Ses roues sont équipées de boyaux gonflés à 12 bars. Après plusieurs années de recherche, une étroite collaboration entre Corima et la société d'orthoprothésistes Chabloz Orthopédie donne naissance à un prototype tout en carbone. L'athlète ne joue ainsi plus assis mais à genoux. En engageant son bassin dans le jeu, les coups et la propulsion sont plus puissants. Il gagne en force, allonge et vitesse, lui qui se décrit comme « le moins rapide du Top 10 ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Stéphane_Houdet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9phane_Houdet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Palmarès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Titres en simple (51)
-Jeux paralympiques
-Jeux paralympiques d'été de 2008 à Pékin
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Stéphane_Houdet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9phane_Houdet</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Jeux paralympiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Jeux paralympiques d'été de 2008 à Pékin
  médaillé d'or en double messieurs avec Michaël Jeremiasz
 Jeux paralympiques d'été de 2012 à Londres
  médaillé d'argent en simple messieurs
@@ -645,74 +735,106 @@
 Jeux paralympiques d'été de 2016 à Rio
  médaillé d'or en double messieurs avec Nicolas Peifer
 Jeux paralympiques d'été de 2020 à Tokyo
- médaillé d'or en double messieurs avec Nicolas Peifer
-En Grand Chelem
-Victoires en simple (4)
-Victoires en double (20)
-Au Masters
-Victoire en simple (1)
-Victoires en double (7)
-Coupe du monde par équipes
- Médaille d'or :  Nottingham 2009,  Séoul 2012,  Antalya 2013,  Alphen 2014,  Tokyo en 2016[13]
+ médaillé d'or en double messieurs avec Nicolas Peifer</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Stéphane_Houdet</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9phane_Houdet</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Coupe du monde par équipes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Médaille d'or :  Nottingham 2009,  Séoul 2012,  Antalya 2013,  Alphen 2014,  Tokyo en 2016
  Médaille d’argent :  Brasilia 2006,  Crémone 2008,  Johannesburg 2011,  Tel Aviv 2019
  Médaille de bronze :  Antalya 2010</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>St%C3%A9phane_Houdet</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine vétérinaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/St%C3%A9phane_Houdet</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Stéphane_Houdet</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9phane_Houdet</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Classement ITF de fin d'année</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>St%C3%A9phane_Houdet</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine vétérinaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/St%C3%A9phane_Houdet</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Stéphane_Houdet</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9phane_Houdet</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de la Légion d'honneur le 8 septembre 2021[14], chevalier le 19 janvier 2009[15]
- Officier de l'ordre national du Mérite le 1er décembre 2016[16]</t>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur le 8 septembre 2021, chevalier le 19 janvier 2009
+ Officier de l'ordre national du Mérite le 1er décembre 2016</t>
         </is>
       </c>
     </row>
